--- a/SMS/static/excel/society-members.xlsx
+++ b/SMS/static/excel/society-members.xlsx
@@ -1,37 +1,371 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
-    <sheet name="Tablib Dataset" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+  <si>
+    <t>flat_no</t>
+  </si>
+  <si>
+    <t>primary_name</t>
+  </si>
+  <si>
+    <t>primary_contact_no</t>
+  </si>
+  <si>
+    <t>secondary_name</t>
+  </si>
+  <si>
+    <t>secondary_contact_no</t>
+  </si>
+  <si>
+    <t>accounting_name</t>
+  </si>
+  <si>
+    <t>whatsapp_contact_no</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>Rohit Shantilal Shah</t>
+  </si>
+  <si>
+    <t>Hardik R Mehta</t>
+  </si>
+  <si>
+    <t>Jayesh Tansukhrai Josh</t>
+  </si>
+  <si>
+    <t>Rani Ravidatt Shukla</t>
+  </si>
+  <si>
+    <t>Laxmichandra Agarwal</t>
+  </si>
+  <si>
+    <t>Sharad Shantilal Shah</t>
+  </si>
+  <si>
+    <t>Himanshu Kansara</t>
+  </si>
+  <si>
+    <t>Indu Mittal</t>
+  </si>
+  <si>
+    <t>Kevin Shrimali</t>
+  </si>
+  <si>
+    <t>Hitesh S Patel</t>
+  </si>
+  <si>
+    <t>Gayatri Giri</t>
+  </si>
+  <si>
+    <t>Ilaben Kaushikkumar Choksi</t>
+  </si>
+  <si>
+    <t>Payal Mihir Thakkar</t>
+  </si>
+  <si>
+    <t>Kishor Jiani</t>
+  </si>
+  <si>
+    <t>Meena Ganesh</t>
+  </si>
+  <si>
+    <t>Manish Bipinchandra Shah</t>
+  </si>
+  <si>
+    <t>Umang V Shah</t>
+  </si>
+  <si>
+    <t>Dhanesh Malukani</t>
+  </si>
+  <si>
+    <t>Renishkumar Ladani</t>
+  </si>
+  <si>
+    <t>Divya P Nair</t>
+  </si>
+  <si>
+    <t>Pankaj Agrawa</t>
+  </si>
+  <si>
+    <t>Amit Jain</t>
+  </si>
+  <si>
+    <t>Brig. Dr. Vijendra Pal Singh</t>
+  </si>
+  <si>
+    <t>Ketan P Shah</t>
+  </si>
+  <si>
+    <t>Laxman Jethanand Punjabi</t>
+  </si>
+  <si>
+    <t>Pragnaben Vinodbhai Shah</t>
+  </si>
+  <si>
+    <t>Vivek H Darakh</t>
+  </si>
+  <si>
+    <t>Ashish Ashok Bothra</t>
+  </si>
+  <si>
+    <t>Rajesh Desai</t>
+  </si>
+  <si>
+    <t>Heli Chintan Gajjar</t>
+  </si>
+  <si>
+    <t>Arpit Thakkar</t>
+  </si>
+  <si>
+    <t>Manish R Limbani</t>
+  </si>
+  <si>
+    <t>Bhatia Soni Prakash</t>
+  </si>
+  <si>
+    <t>Bhavna Rohit Shah</t>
+  </si>
+  <si>
+    <t>Shreya Hardik Mehta</t>
+  </si>
+  <si>
+    <t>Ravidatt B Shukla</t>
+  </si>
+  <si>
+    <t>Pankaj Agarwal</t>
+  </si>
+  <si>
+    <t>Ravi Sharad Shah</t>
+  </si>
+  <si>
+    <t>Pinkal H Kansara</t>
+  </si>
+  <si>
+    <t>Sandeep Kumar Mittal</t>
+  </si>
+  <si>
+    <t>Vidhi Shrimali</t>
+  </si>
+  <si>
+    <t>Diptiben H Patel</t>
+  </si>
+  <si>
+    <t>Dr. Rajesh Gopal</t>
+  </si>
+  <si>
+    <t>Rakesh Kaushikkumar Choksi</t>
+  </si>
+  <si>
+    <t>Yogendra Jiani</t>
+  </si>
+  <si>
+    <t>N R Ganesh</t>
+  </si>
+  <si>
+    <t>Kaushambi M Shah</t>
+  </si>
+  <si>
+    <t>Sona Umang Shah</t>
+  </si>
+  <si>
+    <t>Lata Malukani</t>
+  </si>
+  <si>
+    <t>Kinjal R Ladani</t>
+  </si>
+  <si>
+    <t>Pramod M Nair</t>
+  </si>
+  <si>
+    <t>Vinita Agrawal</t>
+  </si>
+  <si>
+    <t>Shiromani Jain</t>
+  </si>
+  <si>
+    <t>Anita Singh</t>
+  </si>
+  <si>
+    <t>Frinaben Ketanbhai Shah</t>
+  </si>
+  <si>
+    <t>Manju L Punjabi</t>
+  </si>
+  <si>
+    <t>Vinod Nanchand Shah</t>
+  </si>
+  <si>
+    <t>Smita Ashish Bothra</t>
+  </si>
+  <si>
+    <t>Vidhi Thakkar</t>
+  </si>
+  <si>
+    <t>Sandeep Limbani</t>
+  </si>
+  <si>
+    <t>0101-Rohit S.Shah&amp;Bhavna Rohit Shah</t>
+  </si>
+  <si>
+    <t>0102-Hardik R.Mehta&amp;Shreya H.Mehta</t>
+  </si>
+  <si>
+    <t>0103-Jayesh T.Joshi</t>
+  </si>
+  <si>
+    <t>0201-Rani Ravidatt Shukla &amp; Ravidatt B.Shukla</t>
+  </si>
+  <si>
+    <t>0202-Laxmichandra Agarwal -HUF</t>
+  </si>
+  <si>
+    <t>0203-Sharad Shantilal Shah</t>
+  </si>
+  <si>
+    <t>0301-Himanshu Kansara&amp;Pinki H.kansara</t>
+  </si>
+  <si>
+    <t>0302-Indu Mittal&amp;Sandeep Kumar Mittal</t>
+  </si>
+  <si>
+    <t>0303-Kevin Shrimali &amp;Vidhi Kevin Shrimali</t>
+  </si>
+  <si>
+    <t>0401-Hitesh S.Patel &amp;Diptiben H.Patel</t>
+  </si>
+  <si>
+    <t>0402-Gayatri Giri &amp; Rajesh C.Gopal</t>
+  </si>
+  <si>
+    <t>0403-ILA K.CHOKSI &amp;RAKESH K.CHOKSI&amp;RINA K.CHOKSI</t>
+  </si>
+  <si>
+    <t>0501-Payal Mihir Thakker</t>
+  </si>
+  <si>
+    <t>0502-Kishor Jiani&amp; Yogendra Jiani&amp;Anita Jiani</t>
+  </si>
+  <si>
+    <t>0503-Meena Ganesh&amp;Gautam Ganesh&amp;N.R.Ganesh</t>
+  </si>
+  <si>
+    <t>0601-Manish B.Shah&amp;Kaushambi Shah</t>
+  </si>
+  <si>
+    <t>0602-Umang V.Shah&amp;Sona U.Shah</t>
+  </si>
+  <si>
+    <t>0603-Dhanesh Malukani&amp;Lata Malukani</t>
+  </si>
+  <si>
+    <t>0701-Renishkumar Ladani&amp; Kinji R.ladani</t>
+  </si>
+  <si>
+    <t>0702-Divya P.Nair &amp; Pramod M.Nair</t>
+  </si>
+  <si>
+    <t>0703-Pankaj Agrawal &amp;Vinita Agrawal</t>
+  </si>
+  <si>
+    <t>0801-Amit Jain&amp;Shiromani M.Jain</t>
+  </si>
+  <si>
+    <t>0802-Dr.VijendraPal Singh&amp;Anita.Singh</t>
+  </si>
+  <si>
+    <t>0803-Ketan P Shah&amp;Frinalben K.Shah</t>
+  </si>
+  <si>
+    <t>0901-Laxman Jethanand Punjabi&amp; Manju L.Punjabi</t>
+  </si>
+  <si>
+    <t>0902-Vinod N.Shah&amp;Pragnaben V.Shah</t>
+  </si>
+  <si>
+    <t>0903-Vivek P.Darakh</t>
+  </si>
+  <si>
+    <t>1001-Ashish Ashok Bothra&amp;Smita Ashish Bothra</t>
+  </si>
+  <si>
+    <t>1002-Rajesh Shankarbhai Desai</t>
+  </si>
+  <si>
+    <t>1003-Heli Chintan Gajjar</t>
+  </si>
+  <si>
+    <t>1101-Arpit Thakkar&amp;Vidhi Thakkar</t>
+  </si>
+  <si>
+    <t>1102-Manish R.Limbani &amp;Sandeep R.Limbani</t>
+  </si>
+  <si>
+    <t>1103-Bhatia Soni Prakash</t>
+  </si>
+  <si>
+    <t>hardikrm@gmail.com</t>
+  </si>
+  <si>
+    <t>sharadsshah@yahoo.com</t>
+  </si>
+  <si>
+    <t>rakeshchoksi27@gmail.com</t>
+  </si>
+  <si>
+    <t>vdarakh@gmail.com</t>
+  </si>
+  <si>
+    <t>ajaybhatiax@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,81 +384,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -412,112 +687,729 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>flat_no</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>primary_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>primary_contact_no</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>secondary_name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>secondary_contact_no</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>accounting_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>whatsapp_contact_no</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>residence</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Primary Name</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9856235689</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Secondary Name</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9856236322</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Accounting name</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6523558988</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>email@example.com</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>owner</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>9825225105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>9825225105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>9377379799</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>9375032600</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3">
+        <v>9377379799</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>7575040128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>7575040128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>9099949232</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5">
+        <v>9099949232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>9811899899</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>9811899899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>9714850066</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>9624750066</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7">
+        <v>9714850066</v>
+      </c>
+      <c r="H7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>301</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>9898617159</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8">
+        <v>9898617159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>302</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>8460730241</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9">
+        <v>8460730241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>303</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>9825800322</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10">
+        <v>9825800322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>401</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>9825476551</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11">
+        <v>9825476551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>402</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>9825613193</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>9601360648</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>9825613193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>403</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>9727378885</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13">
+        <v>9727378885</v>
+      </c>
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>501</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>502</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>9824272409</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>9558832140</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15">
+        <v>9824272409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>503</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>9879107123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16">
+        <v>9879107123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>601</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>9328002381</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17">
+        <v>9328002381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>602</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>9825128486</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18">
+        <v>9825128486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>603</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>9825414203</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19">
+        <v>9825414203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>701</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>8758645500</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20">
+        <v>8758645500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>702</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>9824306989</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>9909431454</v>
+      </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21">
+        <v>9824306989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>703</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>8140520005</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22">
+        <v>8140520005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>801</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>9824001106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23">
+        <v>9824001106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>802</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>8057698233</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24">
+        <v>9712397144</v>
+      </c>
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24">
+        <v>8057698233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>803</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>7621024444</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>9662228444</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25">
+        <v>7621024444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>901</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>9327808090</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26">
+        <v>9327808090</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>902</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27">
+        <v>9825043633</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27">
+        <v>9825043633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>903</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>9321101007</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28">
+        <v>9321101007</v>
+      </c>
+      <c r="H28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>9909424300</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30">
+        <v>9909424300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1003</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>9377820129</v>
+      </c>
+      <c r="E31">
+        <v>9033371924</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31">
+        <v>9377820129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>9825794470</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32">
+        <v>9825031572</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>9825794470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>9825941707</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33">
+        <v>9825941707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>9913881723</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34">
+        <v>9913881723</v>
+      </c>
+      <c r="H34" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
